--- a/BackTest/2020-01-22 BackTest REP.xlsx
+++ b/BackTest/2020-01-22 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-4175.649592177784</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-4179.189592177784</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -618,8 +618,12 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>15800</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15800</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -652,8 +656,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>15800</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +695,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>15800</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -1177,14 +1193,10 @@
         <v>-4370.143614347785</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>15900</v>
-      </c>
-      <c r="J24" t="n">
-        <v>15900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1214,19 +1226,11 @@
         <v>-4331.680514347785</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>15960</v>
-      </c>
-      <c r="J25" t="n">
-        <v>15900</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1258,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>15900</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1591,11 +1589,17 @@
         <v>-4113.852414347783</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>16130</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1626,9 +1630,15 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>16220</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1657,11 +1667,17 @@
         <v>-4116.202314347784</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>16220</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1692,9 +1708,15 @@
       <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>16080</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1723,11 +1745,17 @@
         <v>-4107.721850621689</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>16210</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1758,9 +1786,15 @@
       <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>16200</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1793,7 +1827,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1822,11 +1860,17 @@
         <v>-3992.721850621689</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>16250</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1859,7 +1903,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1892,7 +1940,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1921,11 +1973,17 @@
         <v>-4378.351850621689</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>16090</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1954,11 +2012,17 @@
         <v>-4378.351850621689</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>16250</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1991,7 +2055,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2024,7 +2092,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2053,11 +2125,17 @@
         <v>-4395.745150621689</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>16120</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2086,11 +2164,17 @@
         <v>-4513.857450621689</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>16110</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2119,11 +2203,17 @@
         <v>-4597.002150621689</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>15980</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2152,11 +2242,17 @@
         <v>-4597.002150621689</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>15970</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2185,11 +2281,17 @@
         <v>-4597.002150621689</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>15970</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2218,11 +2320,17 @@
         <v>-4589.707050621689</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>15970</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2251,11 +2359,17 @@
         <v>-4589.707050621689</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>16000</v>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2284,11 +2398,17 @@
         <v>-4602.365750621689</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>16000</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2317,11 +2437,17 @@
         <v>-4602.365750621689</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>15970</v>
+      </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2350,11 +2476,17 @@
         <v>-4642.365750621689</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>15970</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2383,11 +2515,17 @@
         <v>-4614.009050621688</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>15800</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2416,11 +2554,17 @@
         <v>-4589.421850621688</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>15960</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2449,11 +2593,17 @@
         <v>-4591.896850621689</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>16010</v>
+      </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2482,11 +2632,17 @@
         <v>-4596.988950621689</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15860</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2515,11 +2671,17 @@
         <v>-4596.988950621689</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>15850</v>
+      </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2548,11 +2710,17 @@
         <v>-4599.463950621689</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>15850</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2581,11 +2749,17 @@
         <v>-4613.684550621689</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>15840</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2614,11 +2788,17 @@
         <v>-4613.684550621689</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>15810</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2647,11 +2827,17 @@
         <v>-4613.684550621689</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>15810</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2680,11 +2866,17 @@
         <v>-4912.360250621688</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>15810</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2713,11 +2905,17 @@
         <v>-4902.360250621688</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>15770</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2746,11 +2944,17 @@
         <v>-4902.360250621688</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>15830</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2779,11 +2983,17 @@
         <v>-4704.617850621688</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>15830</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2816,7 +3026,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2849,7 +3063,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2882,7 +3100,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2915,7 +3137,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2948,7 +3174,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2981,7 +3211,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3010,11 +3244,17 @@
         <v>-4887.937250621689</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>15830</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3043,11 +3283,17 @@
         <v>-4787.937250621689</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>15800</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3076,11 +3322,17 @@
         <v>-4640.399550621689</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>15850</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3109,11 +3361,17 @@
         <v>-4184.306550621689</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>16060</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3146,7 +3404,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3179,7 +3441,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3212,7 +3478,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3245,7 +3515,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3274,11 +3548,15 @@
         <v>-3822.147502897211</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3311,7 +3589,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3344,7 +3626,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3377,7 +3663,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3410,7 +3700,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3443,7 +3737,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3476,7 +3774,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3509,7 +3811,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3538,11 +3844,15 @@
         <v>-3871.920202897211</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3575,7 +3885,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3608,7 +3922,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3641,7 +3959,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3674,7 +3996,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3707,7 +4033,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3740,7 +4070,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3773,7 +4107,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3806,7 +4144,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3839,7 +4181,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3868,11 +4214,15 @@
         <v>-3673.789402897211</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3905,7 +4255,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3938,7 +4292,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3971,7 +4329,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4004,7 +4366,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4037,7 +4403,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4070,7 +4440,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4103,7 +4477,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4136,7 +4514,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4169,7 +4551,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4198,11 +4584,15 @@
         <v>-3795.774602897211</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4235,7 +4625,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4264,11 +4658,15 @@
         <v>-3342.774602897211</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4301,7 +4699,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4330,11 +4732,15 @@
         <v>-3332.774602897211</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4367,7 +4773,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4396,11 +4806,15 @@
         <v>-3338.274602897211</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4433,7 +4847,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4466,7 +4884,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4499,7 +4921,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4532,7 +4958,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4565,7 +4995,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4598,7 +5032,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4631,7 +5069,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4664,7 +5106,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4697,7 +5143,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4730,7 +5180,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4763,7 +5217,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4796,7 +5254,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4829,7 +5291,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4862,7 +5328,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4895,7 +5365,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4928,7 +5402,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4961,7 +5439,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4994,7 +5476,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5027,7 +5513,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5060,7 +5550,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5093,7 +5587,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5126,7 +5624,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5159,7 +5661,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5192,7 +5698,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5225,7 +5735,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5258,7 +5772,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5291,7 +5809,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5324,7 +5846,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5357,7 +5883,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5390,7 +5920,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5423,7 +5957,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5456,7 +5994,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5489,7 +6031,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5522,7 +6068,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5555,7 +6105,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5588,7 +6142,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5621,7 +6179,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5654,7 +6216,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5687,7 +6253,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5720,7 +6290,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5753,7 +6327,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5786,7 +6364,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5819,7 +6401,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5852,7 +6438,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5885,7 +6475,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5918,7 +6512,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5951,7 +6549,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5984,7 +6586,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6017,7 +6623,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6050,7 +6660,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6083,7 +6697,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6116,7 +6734,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6149,7 +6771,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6182,7 +6808,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6215,7 +6845,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6248,7 +6882,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6281,7 +6919,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6314,7 +6956,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6347,7 +6993,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6380,7 +7030,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6413,7 +7067,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6446,7 +7104,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6479,7 +7141,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6508,11 +7174,15 @@
         <v>-3278.677375911159</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6545,7 +7215,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6574,11 +7248,15 @@
         <v>-3169.597375911159</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6607,14 +7285,16 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
@@ -6640,7 +7320,7 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6673,7 +7353,7 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6706,7 +7386,7 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6739,7 +7419,7 @@
         <v>-3053.30391859556</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6772,7 +7452,7 @@
         <v>-3559.898925004266</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6805,7 +7485,7 @@
         <v>-3538.929525004266</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6838,7 +7518,7 @@
         <v>-3617.439225004266</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6871,7 +7551,7 @@
         <v>-3638.680125004266</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6904,7 +7584,7 @@
         <v>-3412.935125004266</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6937,7 +7617,7 @@
         <v>-3605.986525004266</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6970,7 +7650,7 @@
         <v>-3596.986625004266</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7003,7 +7683,7 @@
         <v>-3716.918225004266</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -9247,17 +9927,11 @@
         <v>-4645.129376875535</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>15990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9286,17 +9960,11 @@
         <v>-4644.016976875535</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>15940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9325,17 +9993,11 @@
         <v>-4644.016976875535</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9368,11 +10030,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9401,17 +10059,11 @@
         <v>-4741.431276875534</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>15900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9440,17 +10092,11 @@
         <v>-4721.461176875535</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>15890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9479,17 +10125,11 @@
         <v>-4805.327476875535</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>15910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9522,11 +10162,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9555,17 +10191,11 @@
         <v>-4800.161576875535</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>15950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9598,11 +10228,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9635,11 +10261,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9672,11 +10294,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9709,11 +10327,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9746,11 +10360,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9783,11 +10393,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9820,11 +10426,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9857,11 +10459,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9894,11 +10492,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9931,11 +10525,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9968,11 +10558,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10001,17 +10587,11 @@
         <v>-4473.104876875535</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10044,11 +10624,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10081,11 +10657,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10118,11 +10690,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10151,17 +10719,11 @@
         <v>-4458.135376875535</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I292" t="n">
-        <v>16030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10190,17 +10752,11 @@
         <v>-4460.058376875535</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>16080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10229,17 +10785,11 @@
         <v>-4460.058376875535</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>16030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10268,17 +10818,11 @@
         <v>-4460.058376875535</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>16030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10307,17 +10851,11 @@
         <v>-4443.218876875535</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>16030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10346,17 +10884,11 @@
         <v>-4429.163876875535</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>16040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10385,17 +10917,11 @@
         <v>-4431.508176875534</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>16070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10424,17 +10950,11 @@
         <v>-4431.508176875534</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10463,17 +10983,11 @@
         <v>-4462.959776875535</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10502,17 +11016,15 @@
         <v>-4462.959776875535</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>16010</v>
       </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="n">
+        <v>16010</v>
+      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10541,15 +11053,17 @@
         <v>-4462.959776875535</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>16010</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>16010</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L302" t="n">
@@ -10580,15 +11094,17 @@
         <v>-4458.573576875535</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>16010</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>16010</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L303" t="n">
@@ -10619,17 +11135,11 @@
         <v>-4458.573576875535</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>16100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10662,11 +11172,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10699,11 +11205,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10732,17 +11234,11 @@
         <v>-4458.312476875535</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
-      </c>
-      <c r="I307" t="n">
-        <v>16090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10771,17 +11267,11 @@
         <v>-4458.312476875535</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
-      </c>
-      <c r="I308" t="n">
-        <v>16100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10810,17 +11300,11 @@
         <v>-4458.312476875535</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I309" t="n">
-        <v>16100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10849,17 +11333,11 @@
         <v>-4458.312476875535</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
-      </c>
-      <c r="I310" t="n">
-        <v>16100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10888,17 +11366,11 @@
         <v>-4477.132876875535</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
-      </c>
-      <c r="I311" t="n">
-        <v>16100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10927,17 +11399,11 @@
         <v>-4464.673076875535</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="n">
-        <v>16050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10966,17 +11432,11 @@
         <v>-4468.816576875535</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
-      </c>
-      <c r="I313" t="n">
-        <v>16080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11005,17 +11465,11 @@
         <v>-4462.416576875536</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>16060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11044,17 +11498,15 @@
         <v>-4462.416576875536</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>16070</v>
       </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="n">
+        <v>16070</v>
+      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11083,15 +11535,17 @@
         <v>-4462.416576875536</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>16070</v>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>16070</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L316" t="n">
@@ -11122,15 +11576,17 @@
         <v>-4462.416576875536</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>16070</v>
       </c>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>16070</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L317" t="n">
@@ -11161,17 +11617,11 @@
         <v>-4481.094676875536</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>16070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11200,17 +11650,15 @@
         <v>-4478.125790752325</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>16050</v>
       </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="n">
+        <v>16050</v>
+      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11239,15 +11687,17 @@
         <v>-4480.348890752325</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>16070</v>
       </c>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>16050</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L320" t="n">
@@ -11278,15 +11728,17 @@
         <v>-4492.348890752325</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>16020</v>
       </c>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>16050</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L321" t="n">
@@ -11317,17 +11769,15 @@
         <v>-4492.348890752325</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>16010</v>
       </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="n">
+        <v>16010</v>
+      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11356,15 +11806,17 @@
         <v>-4489.743790752325</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>16010</v>
       </c>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>16010</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L323" t="n">
@@ -11395,15 +11847,17 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>16020</v>
       </c>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>16010</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L324" t="n">
@@ -11434,17 +11888,15 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>16010</v>
       </c>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="n">
+        <v>16010</v>
+      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11473,15 +11925,17 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>16010</v>
       </c>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>16010</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L326" t="n">
@@ -11512,15 +11966,17 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>16010</v>
       </c>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>16010</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L327" t="n">
@@ -11551,17 +12007,15 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>16010</v>
       </c>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="n">
+        <v>16010</v>
+      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11590,15 +12044,17 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>16010</v>
       </c>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>16010</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L329" t="n">
@@ -11629,15 +12085,17 @@
         <v>-4756.650490752325</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
         <v>16010</v>
       </c>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>16010</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L330" t="n">
@@ -11668,17 +12126,15 @@
         <v>-4753.584790752325</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>16000</v>
       </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11707,15 +12163,17 @@
         <v>-4753.584790752325</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>16010</v>
       </c>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>16000</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L332" t="n">
@@ -11746,15 +12204,17 @@
         <v>-4765.650790752325</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>16010</v>
       </c>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>16000</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L333" t="n">
@@ -11785,17 +12245,15 @@
         <v>-4765.650790752325</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>16000</v>
       </c>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11824,15 +12282,17 @@
         <v>-4765.650790752325</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>16000</v>
       </c>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>16000</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L335" t="n">
@@ -11863,15 +12323,17 @@
         <v>-4765.650790752325</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
         <v>16000</v>
       </c>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>16000</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L336" t="n">
@@ -11902,15 +12364,17 @@
         <v>-5737.644290752325</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>16000</v>
       </c>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>16000</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L337" t="n">
@@ -11941,12 +12405,14 @@
         <v>-5335.671690752325</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>15980</v>
       </c>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>16000</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11980,12 +12446,14 @@
         <v>-5335.771690752325</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>16000</v>
       </c>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>16000</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12019,12 +12487,14 @@
         <v>-5335.771690752325</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>15980</v>
       </c>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>16000</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12058,12 +12528,14 @@
         <v>-5335.771690752325</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>15980</v>
       </c>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>16000</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12097,12 +12569,14 @@
         <v>-5335.871690752326</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>15980</v>
       </c>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>16000</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12136,12 +12610,14 @@
         <v>-5335.971690752326</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>15970</v>
       </c>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>16000</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12175,12 +12651,14 @@
         <v>-5335.971690752326</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>15940</v>
       </c>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>16000</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12214,12 +12692,14 @@
         <v>-5372.531690752327</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>15940</v>
       </c>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>16000</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12253,12 +12733,14 @@
         <v>-5372.531690752327</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>15900</v>
       </c>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>16000</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12292,12 +12774,14 @@
         <v>-5446.864890752327</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>15900</v>
       </c>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>16000</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12331,12 +12815,14 @@
         <v>-5400.077590752327</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>15810</v>
       </c>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>16000</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12370,12 +12856,14 @@
         <v>-5400.877590752327</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>15940</v>
       </c>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>16000</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12409,12 +12897,14 @@
         <v>-5399.877590752327</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>15850</v>
       </c>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>16000</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12448,12 +12938,14 @@
         <v>-5499.877390752326</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>16000</v>
       </c>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>16000</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12487,12 +12979,14 @@
         <v>-5499.877390752326</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>15900</v>
       </c>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>16000</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12526,12 +13020,14 @@
         <v>-5498.877390752326</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>15900</v>
       </c>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>16000</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12565,12 +13061,14 @@
         <v>-4628.672190752326</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>16000</v>
       </c>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>16000</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12604,12 +13102,14 @@
         <v>-4363.447476875537</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>16040</v>
       </c>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>16000</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12643,12 +13143,12 @@
         <v>-4363.447476875537</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="n">
-        <v>16220</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>16000</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12685,7 +13185,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>16000</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12722,7 +13224,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>16000</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12759,7 +13263,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>16000</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12793,16 +13299,20 @@
         <v>-4311.405898326059</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>16000</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L360" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
       <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
@@ -12831,8 +13341,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12864,8 +13380,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12897,8 +13419,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12930,8 +13458,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12960,11 +13494,17 @@
         <v>-4056.51129832606</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12993,11 +13533,17 @@
         <v>-3512.93659832606</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13026,11 +13572,17 @@
         <v>-3399.32289832606</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13059,11 +13611,17 @@
         <v>-3652.53619832606</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13092,11 +13650,17 @@
         <v>-3692.069598326059</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13125,11 +13689,17 @@
         <v>-3722.069598326059</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13158,11 +13728,17 @@
         <v>-3689.518998326059</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13191,11 +13767,17 @@
         <v>-3779.383898326059</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13224,11 +13806,17 @@
         <v>-3802.723398326059</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13257,11 +13845,17 @@
         <v>-3962.467798326059</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13293,8 +13887,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13326,8 +13926,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13359,8 +13965,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13392,8 +14004,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13425,8 +14043,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13458,8 +14082,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13491,8 +14121,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13524,8 +14160,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13557,8 +14199,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13590,8 +14238,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13623,8 +14277,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13656,8 +14316,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13689,8 +14355,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13722,8 +14394,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13755,8 +14433,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13788,8 +14472,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13818,11 +14508,19 @@
         <v>-3931.10639832606</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>16150</v>
+      </c>
+      <c r="J391" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13851,11 +14549,19 @@
         <v>-4031.07839832606</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>16150</v>
+      </c>
+      <c r="J392" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13884,11 +14590,19 @@
         <v>-4030.97529832606</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>16070</v>
+      </c>
+      <c r="J393" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13917,11 +14631,19 @@
         <v>-4030.97529832606</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>16190</v>
+      </c>
+      <c r="J394" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13953,8 +14675,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13986,8 +14714,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14016,11 +14750,19 @@
         <v>-4001.54369832606</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>16160</v>
+      </c>
+      <c r="J397" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14052,8 +14794,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14085,8 +14833,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14118,8 +14872,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14151,8 +14911,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14184,8 +14950,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14217,8 +14989,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14250,8 +15028,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14283,8 +15067,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14316,8 +15106,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14349,8 +15145,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14382,8 +15184,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14415,8 +15223,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14448,8 +15262,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14481,8 +15301,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14514,8 +15340,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14547,8 +15379,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14580,8 +15418,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14613,8 +15457,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14646,8 +15496,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14679,8 +15535,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14712,8 +15574,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14745,8 +15613,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14778,8 +15652,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14811,8 +15691,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14844,8 +15730,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14877,8 +15769,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14910,8 +15808,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14943,8 +15847,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14973,11 +15883,17 @@
         <v>-2662.159898326059</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15006,11 +15922,17 @@
         <v>-2602.756598326059</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15039,11 +15961,17 @@
         <v>-2602.756598326059</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15072,11 +16000,17 @@
         <v>-2507.452298326059</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15105,11 +16039,17 @@
         <v>-2507.452298326059</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15138,11 +16078,17 @@
         <v>-2533.941298326059</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15174,8 +16120,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15207,8 +16159,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15240,8 +16198,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15273,8 +16237,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15306,8 +16276,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15339,8 +16315,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15372,8 +16354,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15405,8 +16393,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15435,11 +16429,17 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15468,11 +16468,17 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15501,11 +16507,17 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15534,13 +16546,19 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L443" t="n">
-        <v>1</v>
+        <v>1.023125</v>
       </c>
       <c r="M443" t="inlineStr"/>
     </row>
@@ -15567,7 +16585,7 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15600,7 +16618,7 @@
         <v>-2635.266598326059</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15633,7 +16651,7 @@
         <v>-2626.30799832606</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15666,7 +16684,7 @@
         <v>-2620.54929832606</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15699,7 +16717,7 @@
         <v>-2620.54929832606</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15732,7 +16750,7 @@
         <v>-2635.02669832606</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15765,7 +16783,7 @@
         <v>-2635.02669832606</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15798,7 +16816,7 @@
         <v>-2515.92939832606</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15831,7 +16849,7 @@
         <v>-2546.84439832606</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15864,7 +16882,7 @@
         <v>-2544.54879832606</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15897,7 +16915,7 @@
         <v>-2544.54879832606</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15930,7 +16948,7 @@
         <v>-2532.85959832606</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15963,7 +16981,7 @@
         <v>-2539.59809832606</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15996,7 +17014,7 @@
         <v>-2539.59809832606</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16029,7 +17047,7 @@
         <v>-2539.59809832606</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16062,7 +17080,7 @@
         <v>-2570.51309832606</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16095,7 +17113,7 @@
         <v>-2570.42449832606</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16128,7 +17146,7 @@
         <v>-2570.42449832606</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16161,7 +17179,7 @@
         <v>-2302.13139832606</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16194,7 +17212,7 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16227,7 +17245,7 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16260,7 +17278,7 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16293,7 +17311,7 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16326,7 +17344,7 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16359,7 +17377,7 @@
         <v>-2374.61479832606</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16392,7 +17410,7 @@
         <v>-2770.10809832606</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16425,7 +17443,7 @@
         <v>-2770.10809832606</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16458,7 +17476,7 @@
         <v>-2770.10809832606</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16491,7 +17509,7 @@
         <v>-2770.10809832606</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16524,7 +17542,7 @@
         <v>-2770.10809832606</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16557,7 +17575,7 @@
         <v>-2751.09209832606</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16590,7 +17608,7 @@
         <v>-3065.97079832606</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16623,7 +17641,7 @@
         <v>-3005.17499832606</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16656,7 +17674,7 @@
         <v>-2989.58579832606</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16689,7 +17707,7 @@
         <v>-2989.58579832606</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16722,7 +17740,7 @@
         <v>-2988.5559384845</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16755,7 +17773,7 @@
         <v>-3014.783838484499</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16788,7 +17806,7 @@
         <v>-3018.490838484499</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16821,7 +17839,7 @@
         <v>-3018.490838484499</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16832,6 +17850,6 @@
       <c r="M482" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest REP.xlsx
+++ b/BackTest/2020-01-22 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4127.109492177784</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -616,14 +616,10 @@
         <v>-4232.433792177784</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15800</v>
-      </c>
-      <c r="J7" t="n">
-        <v>15800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -656,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>15800</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -695,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>15800</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -1457,7 +1441,7 @@
         <v>-4272.898514347784</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1490,7 +1474,7 @@
         <v>-4173.015314347784</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1523,7 +1507,7 @@
         <v>-4173.015314347784</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1556,7 +1540,7 @@
         <v>-4175.989614347784</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1589,17 +1573,11 @@
         <v>-4113.852414347783</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>16130</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1628,17 +1606,11 @@
         <v>-4113.852414347783</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>16220</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1667,17 +1639,11 @@
         <v>-4116.202314347784</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>16220</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1706,17 +1672,11 @@
         <v>-4074.542350621688</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>16080</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1745,17 +1705,11 @@
         <v>-4107.721850621689</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>16210</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1784,17 +1738,11 @@
         <v>-3992.721850621689</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>16200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1827,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1860,17 +1804,11 @@
         <v>-3992.721850621689</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1940,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1973,17 +1903,11 @@
         <v>-4378.351850621689</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>16090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2012,17 +1936,11 @@
         <v>-4378.351850621689</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>16250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2055,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2092,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2125,17 +2035,11 @@
         <v>-4395.745150621689</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>16120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2164,17 +2068,11 @@
         <v>-4513.857450621689</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>16110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2203,17 +2101,11 @@
         <v>-4597.002150621689</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>15980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2242,17 +2134,11 @@
         <v>-4597.002150621689</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>15970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2281,17 +2167,11 @@
         <v>-4597.002150621689</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>15970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2320,17 +2200,11 @@
         <v>-4589.707050621689</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>15970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2359,17 +2233,11 @@
         <v>-4589.707050621689</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2398,17 +2266,11 @@
         <v>-4602.365750621689</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2437,17 +2299,11 @@
         <v>-4602.365750621689</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>15970</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2476,17 +2332,11 @@
         <v>-4642.365750621689</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>15970</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2515,17 +2365,11 @@
         <v>-4614.009050621688</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>15800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2554,17 +2398,11 @@
         <v>-4589.421850621688</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>15960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2593,17 +2431,11 @@
         <v>-4591.896850621689</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>16010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2632,17 +2464,11 @@
         <v>-4596.988950621689</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>15860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2671,17 +2497,11 @@
         <v>-4596.988950621689</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>15850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2710,17 +2530,11 @@
         <v>-4599.463950621689</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>15850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2749,17 +2563,11 @@
         <v>-4613.684550621689</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>15840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2788,17 +2596,11 @@
         <v>-4613.684550621689</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>15810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2827,17 +2629,11 @@
         <v>-4613.684550621689</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>15810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2866,17 +2662,11 @@
         <v>-4912.360250621688</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>15810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2905,17 +2695,11 @@
         <v>-4902.360250621688</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>15770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2944,17 +2728,11 @@
         <v>-4902.360250621688</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2983,17 +2761,11 @@
         <v>-4704.617850621688</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>15830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3026,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3063,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3100,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3137,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3174,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3211,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3244,17 +2992,11 @@
         <v>-4887.937250621689</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>15830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3283,17 +3025,11 @@
         <v>-4787.937250621689</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>15800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3322,17 +3058,11 @@
         <v>-4640.399550621689</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>15850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3361,17 +3091,11 @@
         <v>-4184.306550621689</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>16060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3404,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3441,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3478,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3515,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3552,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3589,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3626,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3663,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3700,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3737,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3774,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3811,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3848,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3885,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3922,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3959,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3996,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4033,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4070,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4107,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4144,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4181,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4218,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4255,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4292,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4329,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4366,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4403,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4440,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4514,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4551,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4588,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4625,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4662,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4699,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4736,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4773,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4810,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4847,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4884,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4921,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4958,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4995,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5032,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5069,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5106,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5143,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5180,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5217,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5254,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5291,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5328,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5365,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5402,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5439,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5476,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5513,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5550,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5587,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5624,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5661,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5735,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5772,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5809,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5846,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5883,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5920,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5957,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5994,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6031,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6068,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6105,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6142,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6179,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6216,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6253,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6290,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6327,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6364,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6401,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6438,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6475,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6512,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6549,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6586,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6623,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6660,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6697,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6734,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6771,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6808,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6845,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6882,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6956,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6993,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7030,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7067,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7104,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7141,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7178,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7215,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7252,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7285,16 +6589,14 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
       <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
@@ -7353,7 +6655,7 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7386,7 +6688,7 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7419,7 +6721,7 @@
         <v>-3053.30391859556</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7452,7 +6754,7 @@
         <v>-3559.898925004266</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7485,7 +6787,7 @@
         <v>-3538.929525004266</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7518,7 +6820,7 @@
         <v>-3617.439225004266</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7551,7 +6853,7 @@
         <v>-3638.680125004266</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7584,7 +6886,7 @@
         <v>-3412.935125004266</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7617,7 +6919,7 @@
         <v>-3605.986525004266</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7650,7 +6952,7 @@
         <v>-3596.986625004266</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7683,7 +6985,7 @@
         <v>-3716.918225004266</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8772,10 +8074,14 @@
         <v>-3811.173925004266</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>15970</v>
+      </c>
+      <c r="J233" t="n">
+        <v>15970</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
@@ -8805,11 +8111,19 @@
         <v>-3811.173925004266</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>15950</v>
+      </c>
+      <c r="J234" t="n">
+        <v>15970</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8841,8 +8155,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>15970</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8904,11 +8224,17 @@
         <v>-4103.797425004266</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>15950</v>
+      </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8941,7 +8267,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8974,7 +8304,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9007,7 +8341,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9036,11 +8374,17 @@
         <v>-4061.396265317746</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>15950</v>
+      </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9069,11 +8413,17 @@
         <v>-4315.819265317746</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>15840</v>
+      </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9102,11 +8452,17 @@
         <v>-4538.856565317746</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>15830</v>
+      </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9135,11 +8491,17 @@
         <v>-4538.856565317746</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>15800</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9168,11 +8530,17 @@
         <v>-4538.651965317746</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>15800</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9205,7 +8573,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9238,7 +8610,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9271,7 +8647,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9304,7 +8684,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9337,7 +8721,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9370,7 +8758,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9403,7 +8795,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9436,7 +8832,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9469,7 +8869,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9502,7 +8906,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9535,7 +8943,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9568,7 +8980,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9601,7 +9017,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9634,7 +9054,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9667,7 +9091,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9700,7 +9128,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9733,7 +9165,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9766,7 +9202,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9799,7 +9239,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9832,7 +9276,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9865,7 +9313,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9898,7 +9350,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9931,7 +9387,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9964,7 +9424,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9997,7 +9461,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10030,7 +9498,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10063,7 +9535,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10096,7 +9572,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10129,7 +9609,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10162,7 +9646,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10195,7 +9683,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10228,7 +9720,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10261,7 +9757,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10294,7 +9794,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10327,7 +9831,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10360,7 +9868,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10393,7 +9905,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10426,7 +9942,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10459,7 +9979,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10492,7 +10016,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10525,7 +10053,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10558,7 +10090,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10591,7 +10127,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10624,7 +10164,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10657,7 +10201,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10690,7 +10238,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10723,7 +10275,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10756,7 +10312,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10789,7 +10349,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10822,7 +10386,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10855,7 +10423,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10888,7 +10460,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10921,7 +10497,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10954,7 +10534,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10987,7 +10571,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11016,15 +10604,15 @@
         <v>-4462.959776875535</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J301" t="n">
-        <v>16010</v>
-      </c>
-      <c r="K301" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11053,17 +10641,13 @@
         <v>-4462.959776875535</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J302" t="n">
-        <v>16010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L302" t="n">
@@ -11094,17 +10678,13 @@
         <v>-4458.573576875535</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J303" t="n">
-        <v>16010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L303" t="n">
@@ -11139,7 +10719,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11172,7 +10756,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11205,7 +10793,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11238,7 +10830,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11271,7 +10867,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11304,7 +10904,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11337,7 +10941,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11370,7 +10978,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11403,7 +11015,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11436,7 +11052,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11469,7 +11089,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11498,15 +11122,15 @@
         <v>-4462.416576875536</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>16070</v>
-      </c>
-      <c r="J315" t="n">
-        <v>16070</v>
-      </c>
-      <c r="K315" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11535,17 +11159,13 @@
         <v>-4462.416576875536</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>16070</v>
-      </c>
-      <c r="J316" t="n">
-        <v>16070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L316" t="n">
@@ -11576,17 +11196,13 @@
         <v>-4462.416576875536</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>16070</v>
-      </c>
-      <c r="J317" t="n">
-        <v>16070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L317" t="n">
@@ -11621,7 +11237,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11650,15 +11270,15 @@
         <v>-4478.125790752325</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>16050</v>
-      </c>
-      <c r="J319" t="n">
-        <v>16050</v>
-      </c>
-      <c r="K319" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11687,17 +11307,13 @@
         <v>-4480.348890752325</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>16070</v>
-      </c>
-      <c r="J320" t="n">
-        <v>16050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L320" t="n">
@@ -11728,17 +11344,13 @@
         <v>-4492.348890752325</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>16020</v>
-      </c>
-      <c r="J321" t="n">
-        <v>16050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L321" t="n">
@@ -11769,15 +11381,15 @@
         <v>-4492.348890752325</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J322" t="n">
-        <v>16010</v>
-      </c>
-      <c r="K322" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11806,17 +11418,13 @@
         <v>-4489.743790752325</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J323" t="n">
-        <v>16010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L323" t="n">
@@ -11847,17 +11455,13 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>16020</v>
-      </c>
-      <c r="J324" t="n">
-        <v>16010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L324" t="n">
@@ -11888,15 +11492,15 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J325" t="n">
-        <v>16010</v>
-      </c>
-      <c r="K325" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11925,17 +11529,13 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J326" t="n">
-        <v>16010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L326" t="n">
@@ -11966,17 +11566,13 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J327" t="n">
-        <v>16010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L327" t="n">
@@ -12007,15 +11603,15 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J328" t="n">
-        <v>16010</v>
-      </c>
-      <c r="K328" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12044,17 +11640,13 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J329" t="n">
-        <v>16010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L329" t="n">
@@ -12085,17 +11677,13 @@
         <v>-4756.650490752325</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J330" t="n">
-        <v>16010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L330" t="n">
@@ -12126,15 +11714,15 @@
         <v>-4753.584790752325</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J331" t="n">
-        <v>16000</v>
-      </c>
-      <c r="K331" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12163,17 +11751,13 @@
         <v>-4753.584790752325</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J332" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L332" t="n">
@@ -12204,17 +11788,13 @@
         <v>-4765.650790752325</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J333" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L333" t="n">
@@ -12245,15 +11825,15 @@
         <v>-4765.650790752325</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J334" t="n">
-        <v>16000</v>
-      </c>
-      <c r="K334" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12282,17 +11862,13 @@
         <v>-4765.650790752325</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J335" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L335" t="n">
@@ -12323,17 +11899,13 @@
         <v>-4765.650790752325</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J336" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L336" t="n">
@@ -12364,17 +11936,13 @@
         <v>-5737.644290752325</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J337" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L337" t="n">
@@ -12405,14 +11973,10 @@
         <v>-5335.671690752325</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>15980</v>
-      </c>
-      <c r="J338" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12446,14 +12010,10 @@
         <v>-5335.771690752325</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J339" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12487,14 +12047,10 @@
         <v>-5335.771690752325</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>15980</v>
-      </c>
-      <c r="J340" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12528,14 +12084,10 @@
         <v>-5335.771690752325</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>15980</v>
-      </c>
-      <c r="J341" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12569,14 +12121,10 @@
         <v>-5335.871690752326</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>15980</v>
-      </c>
-      <c r="J342" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12610,14 +12158,10 @@
         <v>-5335.971690752326</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>15970</v>
-      </c>
-      <c r="J343" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12651,14 +12195,10 @@
         <v>-5335.971690752326</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>15940</v>
-      </c>
-      <c r="J344" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12692,14 +12232,10 @@
         <v>-5372.531690752327</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>15940</v>
-      </c>
-      <c r="J345" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12733,14 +12269,10 @@
         <v>-5372.531690752327</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>15900</v>
-      </c>
-      <c r="J346" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12774,14 +12306,10 @@
         <v>-5446.864890752327</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>15900</v>
-      </c>
-      <c r="J347" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12815,14 +12343,10 @@
         <v>-5400.077590752327</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>15810</v>
-      </c>
-      <c r="J348" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12856,14 +12380,10 @@
         <v>-5400.877590752327</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>15940</v>
-      </c>
-      <c r="J349" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12897,14 +12417,10 @@
         <v>-5399.877590752327</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>15850</v>
-      </c>
-      <c r="J350" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12938,14 +12454,10 @@
         <v>-5499.877390752326</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J351" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12979,14 +12491,10 @@
         <v>-5499.877390752326</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>15900</v>
-      </c>
-      <c r="J352" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13020,14 +12528,10 @@
         <v>-5498.877390752326</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>15900</v>
-      </c>
-      <c r="J353" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13061,14 +12565,10 @@
         <v>-4628.672190752326</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J354" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13102,14 +12602,10 @@
         <v>-4363.447476875537</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>16040</v>
-      </c>
-      <c r="J355" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13146,9 +12642,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13185,9 +12679,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13224,9 +12716,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13263,9 +12753,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13302,9 +12790,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13341,9 +12827,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13380,9 +12864,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13419,9 +12901,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13458,9 +12938,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13497,9 +12975,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13536,9 +13012,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13575,9 +13049,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13614,9 +13086,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13653,9 +13123,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13692,9 +13160,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13731,9 +13197,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13770,9 +13234,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13809,9 +13271,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13848,9 +13308,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13887,9 +13345,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13926,9 +13382,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13965,9 +13419,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14004,9 +13456,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14043,9 +13493,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14082,9 +13530,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14121,9 +13567,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14160,9 +13604,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14199,9 +13641,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14238,9 +13678,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14277,9 +13715,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14316,9 +13752,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14355,9 +13789,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14394,9 +13826,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14433,9 +13863,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14472,9 +13900,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14508,14 +13934,10 @@
         <v>-3931.10639832606</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>16150</v>
-      </c>
-      <c r="J391" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14549,14 +13971,10 @@
         <v>-4031.07839832606</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>16150</v>
-      </c>
-      <c r="J392" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14590,14 +14008,10 @@
         <v>-4030.97529832606</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>16070</v>
-      </c>
-      <c r="J393" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14631,14 +14045,10 @@
         <v>-4030.97529832606</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>16190</v>
-      </c>
-      <c r="J394" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14675,9 +14085,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14714,9 +14122,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14750,14 +14156,10 @@
         <v>-4001.54369832606</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>16160</v>
-      </c>
-      <c r="J397" t="n">
-        <v>16000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14794,9 +14196,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14833,9 +14233,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14872,9 +14270,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14911,9 +14307,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14950,9 +14344,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14989,9 +14381,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15028,9 +14418,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15067,9 +14455,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15106,9 +14492,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15145,9 +14529,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15184,9 +14566,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15223,9 +14603,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15262,9 +14640,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15301,9 +14677,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15340,9 +14714,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15379,9 +14751,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15418,9 +14788,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15457,9 +14825,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15496,9 +14862,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15535,9 +14899,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15574,9 +14936,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15613,9 +14973,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15652,9 +15010,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15691,9 +15047,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15730,9 +15084,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15769,9 +15121,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15808,9 +15158,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15847,9 +15195,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15886,9 +15232,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15925,9 +15269,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15964,9 +15306,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16003,9 +15343,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16042,9 +15380,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16081,9 +15417,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16120,9 +15454,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16159,9 +15491,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16198,9 +15528,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16237,9 +15565,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16276,9 +15602,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16315,9 +15639,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16354,9 +15676,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16393,9 +15713,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16432,9 +15750,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16471,9 +15787,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16510,9 +15824,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16546,19 +15858,17 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>16000</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L443" t="n">
-        <v>1.023125</v>
+        <v>1</v>
       </c>
       <c r="M443" t="inlineStr"/>
     </row>
@@ -16589,7 +15899,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16618,11 +15932,15 @@
         <v>-2635.266598326059</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16651,11 +15969,15 @@
         <v>-2626.30799832606</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16684,11 +16006,15 @@
         <v>-2620.54929832606</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16717,11 +16043,15 @@
         <v>-2620.54929832606</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16750,11 +16080,15 @@
         <v>-2635.02669832606</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16783,11 +16117,15 @@
         <v>-2635.02669832606</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16816,11 +16154,15 @@
         <v>-2515.92939832606</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16849,11 +16191,15 @@
         <v>-2546.84439832606</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16882,11 +16228,15 @@
         <v>-2544.54879832606</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16915,11 +16265,15 @@
         <v>-2544.54879832606</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16948,11 +16302,15 @@
         <v>-2532.85959832606</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16981,11 +16339,15 @@
         <v>-2539.59809832606</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17014,11 +16376,15 @@
         <v>-2539.59809832606</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17047,11 +16413,15 @@
         <v>-2539.59809832606</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17080,11 +16450,15 @@
         <v>-2570.51309832606</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17113,11 +16487,15 @@
         <v>-2570.42449832606</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17146,11 +16524,15 @@
         <v>-2570.42449832606</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17179,11 +16561,15 @@
         <v>-2302.13139832606</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17212,11 +16598,15 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17245,11 +16635,15 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17278,11 +16672,15 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17311,11 +16709,15 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17344,11 +16746,15 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17377,11 +16783,15 @@
         <v>-2374.61479832606</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17410,11 +16820,15 @@
         <v>-2770.10809832606</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17443,11 +16857,15 @@
         <v>-2770.10809832606</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17476,11 +16894,15 @@
         <v>-2770.10809832606</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17509,11 +16931,15 @@
         <v>-2770.10809832606</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17542,11 +16968,15 @@
         <v>-2770.10809832606</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17575,11 +17005,15 @@
         <v>-2751.09209832606</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17608,11 +17042,15 @@
         <v>-3065.97079832606</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17641,11 +17079,15 @@
         <v>-3005.17499832606</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17674,11 +17116,15 @@
         <v>-2989.58579832606</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17707,11 +17153,15 @@
         <v>-2989.58579832606</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17740,11 +17190,15 @@
         <v>-2988.5559384845</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17773,11 +17227,15 @@
         <v>-3014.783838484499</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17806,11 +17264,15 @@
         <v>-3018.490838484499</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17839,17 +17301,21 @@
         <v>-3018.490838484499</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
       <c r="M482" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest REP.xlsx
+++ b/BackTest/2020-01-22 BackTest REP.xlsx
@@ -451,7 +451,7 @@
         <v>-4127.109492177784</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1177,10 +1177,14 @@
         <v>-4370.143614347785</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>15900</v>
+      </c>
+      <c r="J24" t="n">
+        <v>15900</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1210,11 +1214,19 @@
         <v>-4331.680514347785</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>15960</v>
+      </c>
+      <c r="J25" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1258,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1294,19 @@
         <v>-4308.831314347784</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>15940</v>
+      </c>
+      <c r="J27" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1335,19 @@
         <v>-4314.780014347784</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>16030</v>
+      </c>
+      <c r="J28" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1376,19 @@
         <v>-4250.544714347784</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>15920</v>
+      </c>
+      <c r="J29" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1417,19 @@
         <v>-4286.624614347784</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>16100</v>
+      </c>
+      <c r="J30" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1461,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1497,19 @@
         <v>-4272.898514347784</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>16110</v>
+      </c>
+      <c r="J32" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1538,17 @@
         <v>-4173.015314347784</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1577,17 @@
         <v>-4173.015314347784</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1616,17 @@
         <v>-4175.989614347784</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1655,19 @@
         <v>-4113.852414347783</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>16130</v>
+      </c>
+      <c r="J36" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1696,19 @@
         <v>-4113.852414347783</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>16220</v>
+      </c>
+      <c r="J37" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1737,17 @@
         <v>-4116.202314347784</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1776,19 @@
         <v>-4074.542350621688</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>16080</v>
+      </c>
+      <c r="J39" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1817,19 @@
         <v>-4107.721850621689</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>16210</v>
+      </c>
+      <c r="J40" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1861,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1900,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1939,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +1978,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2017,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2053,19 @@
         <v>-4378.351850621689</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>16090</v>
+      </c>
+      <c r="J46" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2094,19 @@
         <v>-4378.351850621689</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>16250</v>
+      </c>
+      <c r="J47" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2138,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2177,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2213,19 @@
         <v>-4395.745150621689</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>16120</v>
+      </c>
+      <c r="J50" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2257,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2296,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2335,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2374,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2413,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2452,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2491,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2527,17 @@
         <v>-4602.365750621689</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2566,17 @@
         <v>-4642.365750621689</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2605,19 @@
         <v>-4614.009050621688</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>15800</v>
+      </c>
+      <c r="J60" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2646,19 @@
         <v>-4589.421850621688</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>15960</v>
+      </c>
+      <c r="J61" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2690,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2729,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2765,19 @@
         <v>-4596.988950621689</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>15850</v>
+      </c>
+      <c r="J64" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2809,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2848,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2887,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2923,19 @@
         <v>-4613.684550621689</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>15810</v>
+      </c>
+      <c r="J68" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2967,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +3003,19 @@
         <v>-4902.360250621688</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>15770</v>
+      </c>
+      <c r="J70" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +3044,19 @@
         <v>-4902.360250621688</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>15830</v>
+      </c>
+      <c r="J71" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3085,19 @@
         <v>-4704.617850621688</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>15830</v>
+      </c>
+      <c r="J72" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3129,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3168,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3207,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3246,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3285,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3324,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3363,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3402,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3441,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3480,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3519,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3558,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3597,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3636,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3675,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3714,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3753,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3792,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3831,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3870,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3909,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3948,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3987,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4026,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4065,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4104,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4143,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4182,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4221,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4260,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4299,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4338,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4377,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4416,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4455,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4494,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4533,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4572,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4611,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4650,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4689,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4728,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4767,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4806,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4845,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4884,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4923,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4962,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +5001,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +5040,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +5079,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +5118,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +5157,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +5196,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +5235,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +5274,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5313,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5352,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5391,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5430,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5469,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5508,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5547,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5586,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5625,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5664,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5703,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5742,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5781,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5820,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5859,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5898,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5937,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5976,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +6015,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +6054,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +6093,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +6132,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +6171,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +6210,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +6249,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +6288,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6327,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +6366,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6405,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,13 +6441,19 @@
         <v>-3551.543502897211</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>15900</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L158" t="n">
-        <v>1</v>
+        <v>1.028333333333334</v>
       </c>
       <c r="M158" t="inlineStr"/>
     </row>
@@ -5632,7 +6480,7 @@
         <v>-3552.057302897211</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +6513,7 @@
         <v>-3581.467602897211</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6292,7 +7140,7 @@
         <v>-3778.728102897211</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +7173,7 @@
         <v>-3697.292202897211</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6391,7 +7239,7 @@
         <v>-3499.761302897211</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6457,7 +7305,7 @@
         <v>-3279.677375911159</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +7338,7 @@
         <v>-3278.677375911159</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +7371,7 @@
         <v>-3169.597375911159</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +7404,7 @@
         <v>-3169.597375911159</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +7437,7 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +7470,7 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +7503,7 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +7536,7 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +7569,7 @@
         <v>-3053.30391859556</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +7602,7 @@
         <v>-3559.898925004266</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +7635,7 @@
         <v>-3538.929525004266</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +7668,7 @@
         <v>-3617.439225004266</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +7701,7 @@
         <v>-3638.680125004266</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +7734,7 @@
         <v>-3412.935125004266</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +7767,7 @@
         <v>-3605.986525004266</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8074,14 +8922,10 @@
         <v>-3811.173925004266</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>15970</v>
-      </c>
-      <c r="J233" t="n">
-        <v>15970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
@@ -8111,19 +8955,11 @@
         <v>-3811.173925004266</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>15950</v>
-      </c>
-      <c r="J234" t="n">
-        <v>15970</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8155,14 +8991,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>15970</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8224,17 +9054,11 @@
         <v>-4103.797425004266</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>15950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8267,11 +9091,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8304,11 +9124,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8341,11 +9157,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8374,17 +9186,11 @@
         <v>-4061.396265317746</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>15950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8413,17 +9219,11 @@
         <v>-4315.819265317746</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>15840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8452,17 +9252,11 @@
         <v>-4538.856565317746</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>15830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8491,17 +9285,11 @@
         <v>-4538.856565317746</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>15800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8530,17 +9318,11 @@
         <v>-4538.651965317746</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>15800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8573,11 +9355,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8610,11 +9388,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8647,11 +9421,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8684,11 +9454,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8721,11 +9487,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8758,11 +9520,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8795,11 +9553,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8832,11 +9586,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8869,11 +9619,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8906,11 +9652,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8943,11 +9685,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8980,11 +9718,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9017,11 +9751,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9050,15 +9780,15 @@
         <v>-4509.091476875535</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>15920</v>
+      </c>
+      <c r="J259" t="n">
+        <v>15920</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9087,13 +9817,17 @@
         <v>-4498.679776875535</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>15920</v>
+      </c>
+      <c r="J260" t="n">
+        <v>15920</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L260" t="n">
@@ -9124,13 +9858,17 @@
         <v>-4561.016076875535</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>15940</v>
+      </c>
+      <c r="J261" t="n">
+        <v>15920</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L261" t="n">
@@ -9161,13 +9899,17 @@
         <v>-4618.110676875535</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>15920</v>
+      </c>
+      <c r="J262" t="n">
+        <v>15920</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L262" t="n">
@@ -9198,10 +9940,14 @@
         <v>-4618.109176875535</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>15850</v>
+      </c>
+      <c r="J263" t="n">
+        <v>15920</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9238,7 +9984,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>15920</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9272,10 +10020,14 @@
         <v>-4617.121276875535</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>15940</v>
+      </c>
+      <c r="J265" t="n">
+        <v>15920</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9309,10 +10061,14 @@
         <v>-4617.121276875535</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>15940</v>
+      </c>
+      <c r="J266" t="n">
+        <v>15920</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9346,10 +10102,14 @@
         <v>-4615.129376875535</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>15940</v>
+      </c>
+      <c r="J267" t="n">
+        <v>15920</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9386,7 +10146,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>15920</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9420,10 +10182,14 @@
         <v>-4644.016976875535</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>15940</v>
+      </c>
+      <c r="J269" t="n">
+        <v>15920</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9457,10 +10223,14 @@
         <v>-4644.016976875535</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J270" t="n">
+        <v>15920</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9494,10 +10264,14 @@
         <v>-4678.406176875535</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J271" t="n">
+        <v>15920</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9531,10 +10305,14 @@
         <v>-4741.431276875534</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>15900</v>
+      </c>
+      <c r="J272" t="n">
+        <v>15920</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9568,10 +10346,14 @@
         <v>-4721.461176875535</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>15890</v>
+      </c>
+      <c r="J273" t="n">
+        <v>15920</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9605,10 +10387,14 @@
         <v>-4805.327476875535</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>15910</v>
+      </c>
+      <c r="J274" t="n">
+        <v>15920</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9642,10 +10428,14 @@
         <v>-4803.987476875534</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>15900</v>
+      </c>
+      <c r="J275" t="n">
+        <v>15920</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9679,10 +10469,14 @@
         <v>-4800.161576875535</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>15950</v>
+      </c>
+      <c r="J276" t="n">
+        <v>15920</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9716,10 +10510,14 @@
         <v>-4795.821576875534</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>15960</v>
+      </c>
+      <c r="J277" t="n">
+        <v>15920</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9753,10 +10551,14 @@
         <v>-4737.357676875535</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J278" t="n">
+        <v>15920</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9790,10 +10592,14 @@
         <v>-4783.223576875534</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>16020</v>
+      </c>
+      <c r="J279" t="n">
+        <v>15920</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9827,10 +10633,14 @@
         <v>-4723.223576875534</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>15980</v>
+      </c>
+      <c r="J280" t="n">
+        <v>15920</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9864,10 +10674,14 @@
         <v>-4603.223576875534</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>15990</v>
+      </c>
+      <c r="J281" t="n">
+        <v>15920</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9901,10 +10715,14 @@
         <v>-4603.223576875534</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J282" t="n">
+        <v>15920</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9938,10 +10756,14 @@
         <v>-4603.223576875534</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J283" t="n">
+        <v>15920</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9975,10 +10797,14 @@
         <v>-4663.223576875534</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J284" t="n">
+        <v>15920</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10012,10 +10838,14 @@
         <v>-4652.223576875534</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>15980</v>
+      </c>
+      <c r="J285" t="n">
+        <v>15920</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10049,10 +10879,14 @@
         <v>-4652.223576875534</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>15990</v>
+      </c>
+      <c r="J286" t="n">
+        <v>15920</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10086,10 +10920,14 @@
         <v>-4549.719676875535</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>15990</v>
+      </c>
+      <c r="J287" t="n">
+        <v>15920</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10123,10 +10961,14 @@
         <v>-4473.104876875535</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J288" t="n">
+        <v>15920</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10160,10 +11002,14 @@
         <v>-4473.104876875535</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>16040</v>
+      </c>
+      <c r="J289" t="n">
+        <v>15920</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10197,10 +11043,14 @@
         <v>-4476.955776875535</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>16040</v>
+      </c>
+      <c r="J290" t="n">
+        <v>15920</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10234,10 +11084,14 @@
         <v>-4476.955776875535</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>16030</v>
+      </c>
+      <c r="J291" t="n">
+        <v>15920</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10271,10 +11125,14 @@
         <v>-4458.135376875535</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>16030</v>
+      </c>
+      <c r="J292" t="n">
+        <v>15920</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10308,10 +11166,14 @@
         <v>-4460.058376875535</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>16080</v>
+      </c>
+      <c r="J293" t="n">
+        <v>15920</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10345,10 +11207,14 @@
         <v>-4460.058376875535</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>16030</v>
+      </c>
+      <c r="J294" t="n">
+        <v>15920</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10382,10 +11248,14 @@
         <v>-4460.058376875535</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>16030</v>
+      </c>
+      <c r="J295" t="n">
+        <v>15920</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10419,10 +11289,14 @@
         <v>-4443.218876875535</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>16030</v>
+      </c>
+      <c r="J296" t="n">
+        <v>15920</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10456,10 +11330,14 @@
         <v>-4429.163876875535</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>16040</v>
+      </c>
+      <c r="J297" t="n">
+        <v>15920</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10493,10 +11371,14 @@
         <v>-4431.508176875534</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>16070</v>
+      </c>
+      <c r="J298" t="n">
+        <v>15920</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10530,10 +11412,14 @@
         <v>-4431.508176875534</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>16020</v>
+      </c>
+      <c r="J299" t="n">
+        <v>15920</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10567,10 +11453,14 @@
         <v>-4462.959776875535</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>16020</v>
+      </c>
+      <c r="J300" t="n">
+        <v>15920</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10604,10 +11494,14 @@
         <v>-4462.959776875535</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J301" t="n">
+        <v>15920</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10641,10 +11535,14 @@
         <v>-4462.959776875535</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J302" t="n">
+        <v>15920</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10678,10 +11576,14 @@
         <v>-4458.573576875535</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J303" t="n">
+        <v>15920</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10715,10 +11617,14 @@
         <v>-4458.573576875535</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>16100</v>
+      </c>
+      <c r="J304" t="n">
+        <v>15920</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10752,10 +11658,14 @@
         <v>-4458.573576875535</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>16100</v>
+      </c>
+      <c r="J305" t="n">
+        <v>15920</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10789,10 +11699,14 @@
         <v>-4462.095176875535</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>16100</v>
+      </c>
+      <c r="J306" t="n">
+        <v>15920</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10826,10 +11740,14 @@
         <v>-4458.312476875535</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>16090</v>
+      </c>
+      <c r="J307" t="n">
+        <v>15920</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10863,10 +11781,14 @@
         <v>-4458.312476875535</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>16100</v>
+      </c>
+      <c r="J308" t="n">
+        <v>15920</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10900,10 +11822,14 @@
         <v>-4458.312476875535</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>16100</v>
+      </c>
+      <c r="J309" t="n">
+        <v>15920</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10937,10 +11863,14 @@
         <v>-4458.312476875535</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>16100</v>
+      </c>
+      <c r="J310" t="n">
+        <v>15920</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10974,10 +11904,14 @@
         <v>-4477.132876875535</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>16100</v>
+      </c>
+      <c r="J311" t="n">
+        <v>15920</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11011,10 +11945,14 @@
         <v>-4464.673076875535</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>16050</v>
+      </c>
+      <c r="J312" t="n">
+        <v>15920</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11048,10 +11986,14 @@
         <v>-4468.816576875535</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>16080</v>
+      </c>
+      <c r="J313" t="n">
+        <v>15920</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11085,10 +12027,14 @@
         <v>-4462.416576875536</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>16060</v>
+      </c>
+      <c r="J314" t="n">
+        <v>15920</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11122,10 +12068,14 @@
         <v>-4462.416576875536</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>16070</v>
+      </c>
+      <c r="J315" t="n">
+        <v>15920</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11159,10 +12109,14 @@
         <v>-4462.416576875536</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>16070</v>
+      </c>
+      <c r="J316" t="n">
+        <v>15920</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11196,10 +12150,14 @@
         <v>-4462.416576875536</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>16070</v>
+      </c>
+      <c r="J317" t="n">
+        <v>15920</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11233,10 +12191,14 @@
         <v>-4481.094676875536</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>16070</v>
+      </c>
+      <c r="J318" t="n">
+        <v>15920</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11270,10 +12232,14 @@
         <v>-4478.125790752325</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>16050</v>
+      </c>
+      <c r="J319" t="n">
+        <v>15920</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11307,10 +12273,14 @@
         <v>-4480.348890752325</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>16070</v>
+      </c>
+      <c r="J320" t="n">
+        <v>15920</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11344,10 +12314,14 @@
         <v>-4492.348890752325</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>16020</v>
+      </c>
+      <c r="J321" t="n">
+        <v>15920</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11381,10 +12355,14 @@
         <v>-4492.348890752325</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J322" t="n">
+        <v>15920</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11418,10 +12396,14 @@
         <v>-4489.743790752325</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J323" t="n">
+        <v>15920</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11455,10 +12437,14 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>16020</v>
+      </c>
+      <c r="J324" t="n">
+        <v>15920</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11492,10 +12478,14 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J325" t="n">
+        <v>15920</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11529,10 +12519,14 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J326" t="n">
+        <v>15920</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11566,10 +12560,14 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J327" t="n">
+        <v>15920</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11603,10 +12601,14 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J328" t="n">
+        <v>15920</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11640,10 +12642,14 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J329" t="n">
+        <v>15920</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11677,10 +12683,14 @@
         <v>-4756.650490752325</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J330" t="n">
+        <v>15920</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11714,10 +12724,14 @@
         <v>-4753.584790752325</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J331" t="n">
+        <v>15920</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11751,10 +12765,14 @@
         <v>-4753.584790752325</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J332" t="n">
+        <v>15920</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11788,10 +12806,14 @@
         <v>-4765.650790752325</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J333" t="n">
+        <v>15920</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11825,10 +12847,14 @@
         <v>-4765.650790752325</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J334" t="n">
+        <v>15920</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11862,10 +12888,14 @@
         <v>-4765.650790752325</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J335" t="n">
+        <v>15920</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11899,10 +12929,14 @@
         <v>-4765.650790752325</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J336" t="n">
+        <v>15920</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11936,10 +12970,14 @@
         <v>-5737.644290752325</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J337" t="n">
+        <v>15920</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11973,10 +13011,14 @@
         <v>-5335.671690752325</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>15980</v>
+      </c>
+      <c r="J338" t="n">
+        <v>15920</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12010,10 +13052,14 @@
         <v>-5335.771690752325</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J339" t="n">
+        <v>15920</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12047,10 +13093,14 @@
         <v>-5335.771690752325</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>15980</v>
+      </c>
+      <c r="J340" t="n">
+        <v>15920</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12084,10 +13134,14 @@
         <v>-5335.771690752325</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>15980</v>
+      </c>
+      <c r="J341" t="n">
+        <v>15920</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12121,10 +13175,14 @@
         <v>-5335.871690752326</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>15980</v>
+      </c>
+      <c r="J342" t="n">
+        <v>15920</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12158,10 +13216,14 @@
         <v>-5335.971690752326</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>15970</v>
+      </c>
+      <c r="J343" t="n">
+        <v>15920</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12195,10 +13257,14 @@
         <v>-5335.971690752326</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>15940</v>
+      </c>
+      <c r="J344" t="n">
+        <v>15920</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12232,10 +13298,14 @@
         <v>-5372.531690752327</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>15940</v>
+      </c>
+      <c r="J345" t="n">
+        <v>15920</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12269,10 +13339,14 @@
         <v>-5372.531690752327</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>15900</v>
+      </c>
+      <c r="J346" t="n">
+        <v>15920</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12306,10 +13380,14 @@
         <v>-5446.864890752327</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>15900</v>
+      </c>
+      <c r="J347" t="n">
+        <v>15920</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12343,10 +13421,14 @@
         <v>-5400.077590752327</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>15810</v>
+      </c>
+      <c r="J348" t="n">
+        <v>15920</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12380,10 +13462,14 @@
         <v>-5400.877590752327</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>15940</v>
+      </c>
+      <c r="J349" t="n">
+        <v>15920</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12417,10 +13503,14 @@
         <v>-5399.877590752327</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>15850</v>
+      </c>
+      <c r="J350" t="n">
+        <v>15920</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12454,10 +13544,14 @@
         <v>-5499.877390752326</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J351" t="n">
+        <v>15920</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12491,10 +13585,14 @@
         <v>-5499.877390752326</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>15900</v>
+      </c>
+      <c r="J352" t="n">
+        <v>15920</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12528,10 +13626,14 @@
         <v>-5498.877390752326</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>15900</v>
+      </c>
+      <c r="J353" t="n">
+        <v>15920</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12565,10 +13667,14 @@
         <v>-4628.672190752326</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J354" t="n">
+        <v>15920</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12602,10 +13708,14 @@
         <v>-4363.447476875537</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>16040</v>
+      </c>
+      <c r="J355" t="n">
+        <v>15920</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12642,7 +13752,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>15920</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12679,7 +13791,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>15920</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12716,7 +13830,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>15920</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12753,7 +13869,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>15920</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12790,7 +13908,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>15920</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12827,7 +13947,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>15920</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12864,7 +13986,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>15920</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12901,7 +14025,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>15920</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12938,7 +14064,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>15920</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12975,7 +14103,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>15920</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13012,7 +14142,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>15920</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13049,7 +14181,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>15920</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13083,17 +14217,19 @@
         <v>-3652.53619832606</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>15920</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L368" t="n">
-        <v>1</v>
+        <v>1.028291457286432</v>
       </c>
       <c r="M368" t="inlineStr"/>
     </row>
@@ -13120,15 +14256,11 @@
         <v>-3692.069598326059</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13161,11 +14293,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13198,11 +14326,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13235,11 +14359,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13272,11 +14392,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13309,11 +14425,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13346,11 +14458,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13383,11 +14491,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13420,11 +14524,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13457,11 +14557,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13490,15 +14586,11 @@
         <v>-3896.56769832606</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13531,11 +14623,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13568,11 +14656,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13605,11 +14689,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13642,11 +14722,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13679,11 +14755,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13716,11 +14788,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13753,11 +14821,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13790,11 +14854,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13827,11 +14887,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13864,11 +14920,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13901,11 +14953,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13938,11 +14986,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13975,11 +15019,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14012,11 +15052,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14049,11 +15085,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14086,11 +15118,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14123,11 +15151,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14160,11 +15184,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14197,11 +15217,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14234,11 +15250,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14271,11 +15283,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14308,11 +15316,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14345,11 +15349,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14382,11 +15382,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14419,11 +15415,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14456,11 +15448,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14493,11 +15481,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14530,11 +15514,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14567,11 +15547,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14604,11 +15580,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +15613,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14678,11 +15646,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14715,11 +15679,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14752,11 +15712,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14789,11 +15745,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14826,11 +15778,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14863,11 +15811,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14900,11 +15844,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14937,11 +15877,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14974,11 +15910,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15011,11 +15943,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15048,11 +15976,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15085,11 +16009,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15118,15 +16038,11 @@
         <v>-3353.560598326059</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15155,15 +16071,11 @@
         <v>-3265.330598326059</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15192,15 +16104,11 @@
         <v>-2662.159898326059</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15229,15 +16137,11 @@
         <v>-2662.159898326059</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15266,15 +16170,11 @@
         <v>-2602.756598326059</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15303,15 +16203,11 @@
         <v>-2602.756598326059</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15340,15 +16236,11 @@
         <v>-2507.452298326059</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15377,15 +16269,11 @@
         <v>-2507.452298326059</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15414,15 +16302,11 @@
         <v>-2533.941298326059</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15451,15 +16335,11 @@
         <v>-2533.941298326059</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15488,15 +16368,11 @@
         <v>-2533.941298326059</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15525,15 +16401,11 @@
         <v>-2217.153298326059</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15562,15 +16434,11 @@
         <v>-2651.672798326059</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15599,15 +16467,11 @@
         <v>-2657.981098326059</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15636,15 +16500,11 @@
         <v>-2459.413898326059</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15673,15 +16533,11 @@
         <v>-2448.923898326059</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15710,15 +16566,11 @@
         <v>-2506.36059832606</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15747,15 +16599,11 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15784,15 +16632,11 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15821,15 +16665,11 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15858,15 +16698,11 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15895,15 +16731,11 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15932,15 +16764,11 @@
         <v>-2635.266598326059</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15969,15 +16797,11 @@
         <v>-2626.30799832606</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16006,15 +16830,11 @@
         <v>-2620.54929832606</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16043,15 +16863,11 @@
         <v>-2620.54929832606</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16080,15 +16896,11 @@
         <v>-2635.02669832606</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16117,15 +16929,11 @@
         <v>-2635.02669832606</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16154,15 +16962,11 @@
         <v>-2515.92939832606</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16191,15 +16995,11 @@
         <v>-2546.84439832606</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16228,15 +17028,11 @@
         <v>-2544.54879832606</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16265,15 +17061,11 @@
         <v>-2544.54879832606</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16302,15 +17094,11 @@
         <v>-2532.85959832606</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16339,15 +17127,11 @@
         <v>-2539.59809832606</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16376,15 +17160,11 @@
         <v>-2539.59809832606</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16413,15 +17193,11 @@
         <v>-2539.59809832606</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16450,15 +17226,11 @@
         <v>-2570.51309832606</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16487,15 +17259,11 @@
         <v>-2570.42449832606</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16524,15 +17292,11 @@
         <v>-2570.42449832606</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16561,15 +17325,11 @@
         <v>-2302.13139832606</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16598,15 +17358,11 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16635,15 +17391,11 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16672,15 +17424,11 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16709,15 +17457,11 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16746,15 +17490,11 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16783,15 +17523,11 @@
         <v>-2374.61479832606</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16820,15 +17556,11 @@
         <v>-2770.10809832606</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16861,11 +17593,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16898,11 +17626,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16935,11 +17659,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16972,11 +17692,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17009,11 +17725,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17042,15 +17754,11 @@
         <v>-3065.97079832606</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17079,15 +17787,11 @@
         <v>-3005.17499832606</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17116,15 +17820,11 @@
         <v>-2989.58579832606</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17153,15 +17853,11 @@
         <v>-2989.58579832606</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17190,15 +17886,11 @@
         <v>-2988.5559384845</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17227,15 +17919,11 @@
         <v>-3014.783838484499</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17264,15 +17952,11 @@
         <v>-3018.490838484499</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17305,11 +17989,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
